--- a/biology/Botanique/Forêt_cinéraire/Forêt_cinéraire.xlsx
+++ b/biology/Botanique/Forêt_cinéraire/Forêt_cinéraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_cin%C3%A9raire</t>
+          <t>Forêt_cinéraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En vertu de l’article L2223-2[1] du code général des collectivités territoriales, une forêt cinéraire est un espace forestier accueillant les cendres de personnes décédées dont le corps a donné lieu à crémation, inhumées au pied d’arbres portant mention de l’identité des défunts. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En vertu de l’article L2223-2 du code général des collectivités territoriales, une forêt cinéraire est un espace forestier accueillant les cendres de personnes décédées dont le corps a donné lieu à crémation, inhumées au pied d’arbres portant mention de l’identité des défunts. 
 La création de forêts cinéraires répond à la fois à un manque de place dans les cimetières et à une volonté grandissante de personnes souhaitant faire le choix de solutions funéraires plus respectueuses de l’environnement. En tant que sites cinéraires, ces forêts présentent en effet l'avantage d'être protégées de toute exploitation forestière, ce qui leur permet de vieillir et de garantir la pérennité d’un écosystème forestier riche, efficient et favorable au développement de la biodiversité endémique. 
-De telles forêts sont déjà très répandues en Allemagne[2]. En France, les pionniers des forêts cinéraires sont Les Arbres de Mémoire[3] qui gèrent un parc forestier près d'Angers au sein duquel  des centaines de défunts reposent depuis 2004. Un projet de forêt cinéraire à Arbas (Haute-Garonne) a été suspendu par le ministère de l'Intérieur en 2019[4], alors que les 3/4 des 200 concessions étaient déjà vendues et des cérémonies déjà programmées. 
-L’association Au-delà des Racines a par ailleurs accompagné la création d’une 1ère Forêt Sanctuaire[5], site cinéraire accueillant des concessions funéraires individuelles ou collectives (dépôt d’urnes funéraires non biodégradables), au printemps 2023 au sein d’une forêt de la commune de Muttersholtz[6] (Bas-Rhin). 
-Une seconde Forêt Sanctuaire a été créée en milieu urbain au mois de septembre 2023 à Schiltigheim[7], et accueille déjà des urnes cinéraires dans un cadre naturel, changeant avec les saisons. Une 3ème Forêt Sanctuaire est en cours de création à Sommerau, et le prochain projet de l’association Au-delà des Racines est programmé à Bitche (Moselle). Une quinzaine d’autres projets sont en cours de lancement, répondant à l’attrait croissant de cette solution auprès des collectivités et des citoyens.
+De telles forêts sont déjà très répandues en Allemagne. En France, les pionniers des forêts cinéraires sont Les Arbres de Mémoire qui gèrent un parc forestier près d'Angers au sein duquel  des centaines de défunts reposent depuis 2004. Un projet de forêt cinéraire à Arbas (Haute-Garonne) a été suspendu par le ministère de l'Intérieur en 2019, alors que les 3/4 des 200 concessions étaient déjà vendues et des cérémonies déjà programmées. 
+L’association Au-delà des Racines a par ailleurs accompagné la création d’une 1ère Forêt Sanctuaire, site cinéraire accueillant des concessions funéraires individuelles ou collectives (dépôt d’urnes funéraires non biodégradables), au printemps 2023 au sein d’une forêt de la commune de Muttersholtz (Bas-Rhin). 
+Une seconde Forêt Sanctuaire a été créée en milieu urbain au mois de septembre 2023 à Schiltigheim, et accueille déjà des urnes cinéraires dans un cadre naturel, changeant avec les saisons. Une 3ème Forêt Sanctuaire est en cours de création à Sommerau, et le prochain projet de l’association Au-delà des Racines est programmé à Bitche (Moselle). Une quinzaine d’autres projets sont en cours de lancement, répondant à l’attrait croissant de cette solution auprès des collectivités et des citoyens.
 </t>
         </is>
       </c>
